--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD156E6E-865B-F144-B6E9-621C6ABDE279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07C816-1D65-2246-93CC-E7E5B73529AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Date Completed</t>
   </si>
   <si>
-    <t>Difficulty ranking</t>
-  </si>
-  <si>
     <t>Key Concepts</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>1ms</t>
-  </si>
-  <si>
-    <t>Language used</t>
   </si>
   <si>
     <t>Java, Python</t>
@@ -91,6 +85,42 @@
       </rPr>
       <t>Well I just learned that leetcode gives you stats based on other solutions using the same language, which makes total sense now that I know it.</t>
     </r>
+  </si>
+  <si>
+    <t>Language(s) used</t>
+  </si>
+  <si>
+    <t>Difficulty Ranking</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Array, Two Pointers, Sorting</t>
+  </si>
+  <si>
+    <t>O(what)?</t>
+  </si>
+  <si>
+    <t>O(n^2) nested for-loops</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>0ms</t>
+  </si>
+  <si>
+    <t>42.45MB</t>
+  </si>
+  <si>
+    <t>41.82MB</t>
+  </si>
+  <si>
+    <t>Problem finally clicked for me when I thought to utilize the 0s at the end by starting at the end of the arrays and decrementing the pointers each time. Couldn't get anywhere when I was starting the pointers at the beginning.  Another issue I ran into was when either of the pointers reached -1. I added a check for this, and if it was the second pointer, we could just break the loop since it meant nums1 was sorted. However, if it was the first pointer, I had it copy the remaining values from nums2 and decrement that pointer.</t>
   </si>
 </sst>
 </file>
@@ -137,8 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -485,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A6F1B-3A41-B743-94A0-5051BC880B1B}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,67 +530,106 @@
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="5" width="18.83203125" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="67.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="68.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C2" s="4">
+        <v>45884</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45884</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2">
-        <v>41.82</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45885</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07C816-1D65-2246-93CC-E7E5B73529AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0561D433-2E76-C041-ABE2-E4AF4EF8D423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
@@ -120,7 +120,17 @@
     <t>41.82MB</t>
   </si>
   <si>
-    <t>Problem finally clicked for me when I thought to utilize the 0s at the end by starting at the end of the arrays and decrementing the pointers each time. Couldn't get anywhere when I was starting the pointers at the beginning.  Another issue I ran into was when either of the pointers reached -1. I added a check for this, and if it was the second pointer, we could just break the loop since it meant nums1 was sorted. However, if it was the first pointer, I had it copy the remaining values from nums2 and decrement that pointer.</t>
+    <r>
+      <t>Problem finally clicked for me when I thought to utilize the 0s at the end by starting at the end of the arrays and decrementing the pointers each time. Couldn't get anywhere when I was starting the pointers at the beginning.  Another issue I ran into was when either of the pointers reached -1. I added a check for this, and if it was the second pointer, we could just break the loop since it meant nums1 was sorted. However, if it was the first pointer, I had it copy the remaining values from nums2 and decrement that pointer.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Might be able to add in more base case checks before main loop.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -521,7 +531,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>88</v>
       </c>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0561D433-2E76-C041-ABE2-E4AF4EF8D423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16617C2C-8DF3-D742-B83F-00260BE3AD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Date Completed</t>
   </si>
@@ -131,6 +131,21 @@
       </rPr>
       <t xml:space="preserve"> Might be able to add in more base case checks before main loop.</t>
     </r>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array, Two Pointers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My solution is definitely way more complicated than it needed to be… </t>
+  </si>
+  <si>
+    <t>O(n) -- no element is ever checked twice despite the nested loops</t>
+  </si>
+  <si>
+    <t>42.05MB</t>
   </si>
 </sst>
 </file>
@@ -528,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A6F1B-3A41-B743-94A0-5051BC880B1B}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,6 +657,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45887</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16617C2C-8DF3-D742-B83F-00260BE3AD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C38C6-CDF5-A648-9C06-5BF370700079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Date Completed</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>42.05MB</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Array, Math, Two Pointers</t>
+  </si>
+  <si>
+    <t>2ms</t>
+  </si>
+  <si>
+    <t>57.79MB</t>
+  </si>
+  <si>
+    <t>Right now my solution uses a second array. Try to figure out how to do it inplace to help with memory.</t>
   </si>
 </sst>
 </file>
@@ -543,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A6F1B-3A41-B743-94A0-5051BC880B1B}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,6 +707,38 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>189</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45887</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C38C6-CDF5-A648-9C06-5BF370700079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D000C3-10E2-F246-A9FF-FB2568D67C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
@@ -163,7 +163,17 @@
     <t>57.79MB</t>
   </si>
   <si>
-    <t>Right now my solution uses a second array. Try to figure out how to do it inplace to help with memory.</t>
+    <r>
+      <t>Right now my solution uses a second array.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Try to figure out how to do it inplace to help with memory.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -564,7 +574,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D000C3-10E2-F246-A9FF-FB2568D67C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7AAFAE-3396-6943-91A9-292DEA465F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Date Completed</t>
   </si>
@@ -174,6 +174,18 @@
       </rPr>
       <t xml:space="preserve"> Try to figure out how to do it inplace to help with memory.</t>
     </r>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Array,  Dynamic Programming, Greedy</t>
+  </si>
+  <si>
+    <t>45.74MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trick to understanding it was that if given an array such as [1,2,3,4,5], the max profit of 4 can be achieved in two ways: 5-1, and also 2-1 + 3-2 + 4-3 + 5-4. Realizing that made seeing the solution much simpler. </t>
   </si>
 </sst>
 </file>
@@ -571,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A6F1B-3A41-B743-94A0-5051BC880B1B}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="107" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,6 +761,38 @@
         <v>35</v>
       </c>
     </row>
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45888</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7AAFAE-3396-6943-91A9-292DEA465F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597B0FAA-E863-F941-BED9-6521FA192295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Date Completed</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t xml:space="preserve">Trick to understanding it was that if given an array such as [1,2,3,4,5], the max profit of 4 can be achieved in two ways: 5-1, and also 2-1 + 3-2 + 4-3 + 5-4. Realizing that made seeing the solution much simpler. </t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Absolute nightmare. Will write more tomorrow</t>
   </si>
 </sst>
 </file>
@@ -232,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -249,6 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A6F1B-3A41-B743-94A0-5051BC880B1B}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,6 +800,26 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45889</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597B0FAA-E863-F941-BED9-6521FA192295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250CB171-E151-AD40-9B25-68A88BCABA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Date Completed</t>
   </si>
@@ -193,12 +193,52 @@
   <si>
     <t>Absolute nightmare. Will write more tomorrow</t>
   </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>45.21MB</t>
+  </si>
+  <si>
+    <t>Array, Dynamic Programming, Greedy</t>
+  </si>
+  <si>
+    <t>77ms</t>
+  </si>
+  <si>
+    <t>45.70MB</t>
+  </si>
+  <si>
+    <r>
+      <t>Similar to yesterdays, and still tricky, but I think I finally figured out the trick! what i should be comparing is for each possible jump, does the</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> following</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jump get you to a greater index that is nonzero? if it does, that's when you should change the jump. comparing the actual index to the array is more important than the jump value at the index.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +250,13 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -255,7 +302,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A6F1B-3A41-B743-94A0-5051BC880B1B}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,14 +849,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>45889</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -816,8 +865,52 @@
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45890</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250CB171-E151-AD40-9B25-68A88BCABA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49695B50-257B-0443-BD7B-91ED17781451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Date Completed</t>
   </si>
@@ -232,6 +232,21 @@
       </rPr>
       <t xml:space="preserve"> jump get you to a greater index that is nonzero? if it does, that's when you should change the jump. comparing the actual index to the array is more important than the jump value at the index.</t>
     </r>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Two Pointers, String</t>
+  </si>
+  <si>
+    <t>5ms</t>
+  </si>
+  <si>
+    <t>43.22MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probably a better way to do it than the way I did. I wanted my while loop to be while(front&lt;s.length()/2), but I ran into an issue with one of the test cases and I was trying to get it done faster. My runtime still beats almost half of the other solutions, but I would like to make it better. Something I tripped up on early on too was not checking for alphanumeric (isLetterOrDigit) values and just letters. </t>
   </si>
 </sst>
 </file>
@@ -639,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A6F1B-3A41-B743-94A0-5051BC880B1B}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,6 +928,38 @@
         <v>47</v>
       </c>
     </row>
+    <row r="9" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>125</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45891</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49695B50-257B-0443-BD7B-91ED17781451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2163CBF-3522-014B-9B92-6ACEFA71D8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Date Completed</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t xml:space="preserve">Probably a better way to do it than the way I did. I wanted my while loop to be while(front&lt;s.length()/2), but I ran into an issue with one of the test cases and I was trying to get it done faster. My runtime still beats almost half of the other solutions, but I would like to make it better. Something I tripped up on early on too was not checking for alphanumeric (isLetterOrDigit) values and just letters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Subsequence </t>
+  </si>
+  <si>
+    <t>41.57MB</t>
+  </si>
+  <si>
+    <t>Pretty straightforward. Got it working on my  first attempt yay!</t>
   </si>
 </sst>
 </file>
@@ -300,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -320,6 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A6F1B-3A41-B743-94A0-5051BC880B1B}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,6 +970,38 @@
         <v>52</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>392</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45892</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2163CBF-3522-014B-9B92-6ACEFA71D8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FEF39-DA88-1B48-BF23-489A7A298BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Date Completed</t>
   </si>
@@ -256,6 +256,24 @@
   </si>
   <si>
     <t>Pretty straightforward. Got it working on my  first attempt yay!</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Array, Sorting, Counting Sort</t>
+  </si>
+  <si>
+    <t>O(n log n)</t>
+  </si>
+  <si>
+    <t>2 ms</t>
+  </si>
+  <si>
+    <t>41.54MB</t>
+  </si>
+  <si>
+    <t>Using Arrays.Sort adds to my runtime (O(n log n)). Alternative approach I saw others do is use bucket sorting.</t>
   </si>
 </sst>
 </file>
@@ -309,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -329,7 +347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A6F1B-3A41-B743-94A0-5051BC880B1B}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,7 +994,7 @@
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>45892</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1000,6 +1017,38 @@
       </c>
       <c r="J10" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>274</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45894</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceface/Desktop/Fun/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FEF39-DA88-1B48-BF23-489A7A298BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284A1A6D-A71C-984E-8B93-A65BB0BFEBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3C51C464-85BA-9F47-BFC0-0BEFF717265E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
